--- a/branches/se/StructureDefinition-QT.xlsx
+++ b/branches/se/StructureDefinition-QT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T22:48:13+00:00</t>
+    <t>2022-11-25T22:49:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
